--- a/emergency_table_details.xlsx
+++ b/emergency_table_details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\OneDrive\바탕 화면\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\PycharmProjects\realtime-emergency-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7298F0A0-522D-46EF-A204-3492A5CC6C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E33DF8-5590-47C6-823F-61D3B3EB1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="120" windowWidth="21960" windowHeight="15450" xr2:uid="{B01D1053-1FF7-44B1-A615-4C5A061843A4}"/>
+    <workbookView xWindow="390" yWindow="120" windowWidth="21960" windowHeight="15450" xr2:uid="{B01D1053-1FF7-44B1-A615-4C5A061843A4}"/>
   </bookViews>
   <sheets>
     <sheet name="hospitals" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0: 요청, 1: 승인, 2: 거절, 3: 이송중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,6 +241,14 @@
   </si>
   <si>
     <t>등록날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wgs84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: 요청, 1: 이송중, 2: 승인, 3: 거절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,14 +322,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -335,10 +336,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,7 +658,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,7 +669,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -682,7 +683,7 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -696,29 +697,29 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>50</v>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -809,7 +810,9 @@
         <v>8</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -827,10 +830,12 @@
         <v>8</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -850,7 +855,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -866,7 +871,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -886,7 +891,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -902,7 +907,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -917,10 +922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2752D0F-DEC9-4F2C-8BBA-38674F07B3DA}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -932,7 +937,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -946,7 +951,7 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -960,29 +965,29 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>50</v>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1034,7 +1039,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1049,7 +1054,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -1065,7 +1070,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -1083,10 +1088,54 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="6">
+        <v>55</v>
+      </c>
+      <c r="H9" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
